--- a/매입매출/샘플-매입매출데이터(2024-01-29).xlsx
+++ b/매입매출/샘플-매입매출데이터(2024-01-29).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505203\Documents\workspace\DBMS\매입매출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\DBMS\매입매출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C2551D-6E91-4877-BC88-6BA8FFC23710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5C9F5D-7D47-4196-9A56-23DAEEE25F54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매입매출데이터" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="iolist_100" localSheetId="0">매입매출데이터!$B$2:$K$501</definedName>
     <definedName name="iolist_100" localSheetId="2">'매입매출데이터 (2)'!$B$2:$J$501</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="282">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -940,6 +940,18 @@
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>거래처코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -17524,7 +17536,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J501">
+  <sortState ref="A2:J501">
     <sortCondition ref="D2:D501"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18286,8 +18298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B675756-D6C1-4678-9866-F64232E01F32}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18314,7 +18326,7 @@
         <v>169</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>154</v>
@@ -18517,7 +18529,7 @@
         <v>170</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F8" s="10">
         <v>2</v>
@@ -26840,7 +26852,7 @@
         <v>193</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F295" s="10">
         <v>1</v>
@@ -32830,7 +32842,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I501">
+  <sortState ref="A2:I501">
     <sortCondition ref="A2:A501"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32840,26 +32852,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0964773D-0EE7-4D35-889A-2DC134F153DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C8A8DD-76D8-41FD-A2AF-D95665952F38}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="34" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>153</v>
@@ -32873,10 +32885,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>144</v>
@@ -32884,10 +32896,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>95</v>
@@ -32895,10 +32907,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>74</v>
@@ -32906,10 +32918,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>119</v>
@@ -32917,10 +32929,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>139</v>
@@ -32928,10 +32940,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>133</v>
@@ -32939,10 +32951,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>109</v>
@@ -32950,10 +32962,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>129</v>
@@ -32961,10 +32973,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>97</v>
@@ -32972,10 +32984,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>76</v>
@@ -32983,10 +32995,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>236</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>74</v>
@@ -32994,10 +33006,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>84</v>
@@ -33005,10 +33017,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>141</v>
@@ -33016,10 +33028,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>54</v>
@@ -33027,10 +33039,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>240</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>91</v>
@@ -33038,10 +33050,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>84</v>
@@ -33049,10 +33061,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>121</v>
@@ -33060,10 +33072,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>66</v>
@@ -33071,10 +33083,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>60</v>
@@ -33082,10 +33094,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>123</v>
@@ -33093,10 +33105,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>246</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>148</v>
@@ -33104,10 +33116,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>125</v>
@@ -33115,10 +33127,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>150</v>
@@ -33126,10 +33138,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>64</v>
@@ -33137,10 +33149,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>82</v>
@@ -33148,10 +33160,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>137</v>
@@ -33159,10 +33171,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>115</v>
@@ -33170,10 +33182,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>127</v>
@@ -33181,10 +33193,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>113</v>
@@ -33192,10 +33204,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>111</v>
@@ -33203,10 +33215,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>105</v>
@@ -33214,10 +33226,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>257</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>131</v>
@@ -33225,10 +33237,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>86</v>
@@ -33236,10 +33248,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>58</v>
@@ -33247,10 +33259,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>93</v>
@@ -33258,10 +33270,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>68</v>
@@ -33269,10 +33281,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>117</v>
@@ -33280,10 +33292,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>80</v>
@@ -33291,10 +33303,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>89</v>
@@ -33302,10 +33314,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>72</v>
@@ -33313,10 +33325,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>56</v>
@@ -33324,10 +33336,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>99</v>
@@ -33335,10 +33347,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>103</v>
@@ -33346,10 +33358,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>107</v>
@@ -33357,10 +33369,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>62</v>
@@ -33368,10 +33380,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>101</v>
@@ -33379,10 +33391,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>146</v>
@@ -33390,10 +33402,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>70</v>
@@ -33401,10 +33413,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>78</v>
@@ -33412,10 +33424,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>135</v>
@@ -33438,14 +33450,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
@@ -33468,7 +33480,7 @@
       <c r="A2" t="s">
         <v>170</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>223</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -33485,7 +33497,7 @@
       <c r="A3" t="s">
         <v>171</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -33502,7 +33514,7 @@
       <c r="A4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -33519,7 +33531,7 @@
       <c r="A5" t="s">
         <v>173</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -33536,7 +33548,7 @@
       <c r="A6" t="s">
         <v>174</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -33553,7 +33565,7 @@
       <c r="A7" t="s">
         <v>175</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -33570,7 +33582,7 @@
       <c r="A8" t="s">
         <v>176</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -33587,7 +33599,7 @@
       <c r="A9" t="s">
         <v>177</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -33604,7 +33616,7 @@
       <c r="A10" t="s">
         <v>178</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -33621,7 +33633,7 @@
       <c r="A11" t="s">
         <v>179</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -33638,7 +33650,7 @@
       <c r="A12" t="s">
         <v>180</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -33655,7 +33667,7 @@
       <c r="A13" t="s">
         <v>181</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -33672,7 +33684,7 @@
       <c r="A14" t="s">
         <v>182</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -33689,7 +33701,7 @@
       <c r="A15" t="s">
         <v>183</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -33706,7 +33718,7 @@
       <c r="A16" t="s">
         <v>184</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -33723,7 +33735,7 @@
       <c r="A17" t="s">
         <v>185</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="14"/>
@@ -33738,7 +33750,7 @@
       <c r="A18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="14"/>
@@ -33753,7 +33765,7 @@
       <c r="A19" t="s">
         <v>187</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="14"/>
@@ -33768,7 +33780,7 @@
       <c r="A20" t="s">
         <v>188</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="14"/>
@@ -33783,7 +33795,7 @@
       <c r="A21" t="s">
         <v>189</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="14"/>
@@ -33798,7 +33810,7 @@
       <c r="A22" t="s">
         <v>190</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="14"/>
@@ -33813,7 +33825,7 @@
       <c r="A23" t="s">
         <v>191</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="14"/>
@@ -33828,7 +33840,7 @@
       <c r="A24" t="s">
         <v>192</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="14"/>
@@ -33843,7 +33855,7 @@
       <c r="A25" t="s">
         <v>193</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="14"/>
@@ -33858,7 +33870,7 @@
       <c r="A26" t="s">
         <v>194</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="14"/>
@@ -33873,7 +33885,7 @@
       <c r="A27" t="s">
         <v>195</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="15" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="14"/>
@@ -33888,7 +33900,7 @@
       <c r="A28" t="s">
         <v>196</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="14"/>
@@ -33903,7 +33915,7 @@
       <c r="A29" t="s">
         <v>197</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="14"/>
@@ -33918,7 +33930,7 @@
       <c r="A30" t="s">
         <v>198</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="14"/>
@@ -33933,7 +33945,7 @@
       <c r="A31" t="s">
         <v>199</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="14"/>
@@ -33948,7 +33960,7 @@
       <c r="A32" t="s">
         <v>200</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="15" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="14"/>
@@ -33963,7 +33975,7 @@
       <c r="A33" t="s">
         <v>201</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="14"/>
@@ -33978,7 +33990,7 @@
       <c r="A34" t="s">
         <v>202</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="14"/>
@@ -33993,7 +34005,7 @@
       <c r="A35" t="s">
         <v>203</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="14"/>
@@ -34008,7 +34020,7 @@
       <c r="A36" t="s">
         <v>204</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="14"/>
@@ -34023,7 +34035,7 @@
       <c r="A37" t="s">
         <v>205</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="14"/>
@@ -34038,7 +34050,7 @@
       <c r="A38" t="s">
         <v>206</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="14"/>
@@ -34053,7 +34065,7 @@
       <c r="A39" t="s">
         <v>207</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="14"/>
@@ -34068,7 +34080,7 @@
       <c r="A40" t="s">
         <v>208</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="14"/>
@@ -34083,7 +34095,7 @@
       <c r="A41" t="s">
         <v>209</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="14"/>
@@ -34098,7 +34110,7 @@
       <c r="A42" t="s">
         <v>210</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="14"/>
@@ -34113,7 +34125,7 @@
       <c r="A43" t="s">
         <v>211</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="14"/>
@@ -34128,7 +34140,7 @@
       <c r="A44" t="s">
         <v>212</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="14"/>
@@ -34143,7 +34155,7 @@
       <c r="A45" t="s">
         <v>213</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="14"/>
@@ -34158,7 +34170,7 @@
       <c r="A46" t="s">
         <v>214</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="14"/>
@@ -34173,7 +34185,7 @@
       <c r="A47" t="s">
         <v>215</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E47" s="14"/>
@@ -34188,7 +34200,7 @@
       <c r="A48" t="s">
         <v>216</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="14"/>
@@ -34203,7 +34215,7 @@
       <c r="A49" t="s">
         <v>217</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="14"/>
@@ -34218,7 +34230,7 @@
       <c r="A50" t="s">
         <v>218</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="14"/>
@@ -34233,7 +34245,7 @@
       <c r="A51" t="s">
         <v>219</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="14"/>
